--- a/Consolidate Excel Sheet.xlsx
+++ b/Consolidate Excel Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\EDGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QA_git1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="82">
   <si>
     <t>SL</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Infra IT</t>
+  </si>
+  <si>
+    <t>Miraz Muhin</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -390,6 +393,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,7 +1571,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,6 +2035,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="K21" s="6" t="s">
         <v>65</v>
       </c>

--- a/Consolidate Excel Sheet.xlsx
+++ b/Consolidate Excel Sheet.xlsx
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,6 +1843,9 @@
       <c r="E12" s="6">
         <v>2019</v>
       </c>
+      <c r="H12" s="10">
+        <v>124</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>55</v>
       </c>
